--- a/docs/単体テスト/テスト報告書/【勤怠管理システム_テスト報告書】KK01001_ログイン画面.xlsx
+++ b/docs/単体テスト/テスト報告書/【勤怠管理システム_テスト報告書】KK01001_ログイン画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\センシンソフト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\単体テスト\テスト報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CBDBB-D148-48AE-B636-56688AD33B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E486A68B-B499-4A33-A11E-5D36CE4D4F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{2C0EBDB8-3EBF-429F-85A0-02BE15ABA097}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="5" xr2:uid="{2C0EBDB8-3EBF-429F-85A0-02BE15ABA097}"/>
   </bookViews>
   <sheets>
     <sheet name="項目１" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="項目４" sheetId="3" r:id="rId3"/>
     <sheet name="項目５" sheetId="4" r:id="rId4"/>
     <sheet name="項目６" sheetId="6" r:id="rId5"/>
+    <sheet name="項目７" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1406,6 +1407,99 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43297</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E048136-E0FD-4A78-B612-F2A85964DB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="230910"/>
+          <a:ext cx="8673522" cy="4901924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27186</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625A41A6-6D73-4AAC-948C-719F5E00DBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5255172"/>
+          <a:ext cx="8566841" cy="4620173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1778,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C48C4FC-EA28-41FE-A41C-04F22DBA92C2}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="29" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="29" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -1816,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0607386-661E-47E6-B1E4-DF57DAD8FC7F}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
@@ -1847,4 +1941,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89441050-FD39-488B-8F41-57AC1D39B58C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>